--- a/data/pca/factorExposure/factorExposure_2017-09-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02332564670497311</v>
+        <v>0.006329562742850335</v>
       </c>
       <c r="C2">
-        <v>0.0008848257340423873</v>
+        <v>-0.03844980976266611</v>
       </c>
       <c r="D2">
-        <v>-0.01363702344804387</v>
+        <v>-0.02929955661641281</v>
       </c>
       <c r="E2">
-        <v>0.01116773128991249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02527798800270329</v>
+      </c>
+      <c r="F2">
+        <v>0.02709055303683745</v>
+      </c>
+      <c r="G2">
+        <v>-0.03114569405353965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01326014013864451</v>
+        <v>0.05140591939137487</v>
       </c>
       <c r="C3">
-        <v>-0.04588764873823555</v>
+        <v>-0.07643686314400198</v>
       </c>
       <c r="D3">
-        <v>-0.01967380884532883</v>
+        <v>-0.01477004420427733</v>
       </c>
       <c r="E3">
-        <v>0.00589468116183631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08628471776955969</v>
+      </c>
+      <c r="F3">
+        <v>0.06731853502086407</v>
+      </c>
+      <c r="G3">
+        <v>-0.07578587955352141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02208221766587399</v>
+        <v>0.05659729004932416</v>
       </c>
       <c r="C4">
-        <v>-0.01045036870109131</v>
+        <v>-0.06157052747316752</v>
       </c>
       <c r="D4">
-        <v>-0.06432230487129821</v>
+        <v>-0.02299006849303266</v>
       </c>
       <c r="E4">
-        <v>-0.01503370089012924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01178524054398573</v>
+      </c>
+      <c r="F4">
+        <v>0.01122733177860515</v>
+      </c>
+      <c r="G4">
+        <v>-0.05417803810294792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01517840897776161</v>
+        <v>0.03309881497720351</v>
       </c>
       <c r="C6">
-        <v>-0.01315748747292577</v>
+        <v>-0.05122427276487317</v>
       </c>
       <c r="D6">
-        <v>-0.08199250249824261</v>
+        <v>-0.01612001451535305</v>
       </c>
       <c r="E6">
-        <v>-0.002642348719076803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01207607331003609</v>
+      </c>
+      <c r="F6">
+        <v>0.01066611419643843</v>
+      </c>
+      <c r="G6">
+        <v>-0.03195881261673956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01001335098134112</v>
+        <v>0.01363409878057285</v>
       </c>
       <c r="C7">
-        <v>0.0001162085851616792</v>
+        <v>-0.03629249215042303</v>
       </c>
       <c r="D7">
-        <v>-0.03484756295555875</v>
+        <v>-0.01345906782494404</v>
       </c>
       <c r="E7">
-        <v>-0.07037250324518778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01122861873286557</v>
+      </c>
+      <c r="F7">
+        <v>0.004067652085591205</v>
+      </c>
+      <c r="G7">
+        <v>-0.08672872356336364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002381524122423797</v>
+        <v>-0.004103059593835947</v>
       </c>
       <c r="C8">
-        <v>0.007584057119256422</v>
+        <v>-0.01879658071271559</v>
       </c>
       <c r="D8">
-        <v>-0.006184193011264178</v>
+        <v>-0.004153207023526894</v>
       </c>
       <c r="E8">
-        <v>-0.008678959929308205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02192337288741909</v>
+      </c>
+      <c r="F8">
+        <v>0.02474483337897976</v>
+      </c>
+      <c r="G8">
+        <v>-0.02600962413678198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01462062264465996</v>
+        <v>0.02978063452546301</v>
       </c>
       <c r="C9">
-        <v>-0.0109903439418074</v>
+        <v>-0.04295041739294948</v>
       </c>
       <c r="D9">
-        <v>-0.04800305799500089</v>
+        <v>-0.0161473940029008</v>
       </c>
       <c r="E9">
-        <v>-0.004902350090733876</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01158844413095183</v>
+      </c>
+      <c r="F9">
+        <v>0.01754431069418997</v>
+      </c>
+      <c r="G9">
+        <v>-0.04404776136195548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01125562580070262</v>
+        <v>0.08813182545587492</v>
       </c>
       <c r="C10">
-        <v>-0.168845756890249</v>
+        <v>0.1843496235382625</v>
       </c>
       <c r="D10">
-        <v>0.1086185616698097</v>
+        <v>0.01775049526807983</v>
       </c>
       <c r="E10">
-        <v>-0.01661074910095196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0118790443136797</v>
+      </c>
+      <c r="F10">
+        <v>-0.01256473224387441</v>
+      </c>
+      <c r="G10">
+        <v>-0.04555152671781897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>5.402735801305384e-05</v>
+        <v>0.03312522741362894</v>
       </c>
       <c r="C11">
-        <v>-0.001104335048394868</v>
+        <v>-0.05287536431094599</v>
       </c>
       <c r="D11">
-        <v>-0.04329755365815843</v>
+        <v>-0.001954738146693282</v>
       </c>
       <c r="E11">
-        <v>0.01001384678584433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.002134338261549616</v>
+      </c>
+      <c r="F11">
+        <v>0.01976776938741245</v>
+      </c>
+      <c r="G11">
+        <v>-0.02511834495300477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005426532420492354</v>
+        <v>0.03136564538840379</v>
       </c>
       <c r="C12">
-        <v>-0.009117516196456506</v>
+        <v>-0.04480264539129764</v>
       </c>
       <c r="D12">
-        <v>-0.04564174972288915</v>
+        <v>-0.006081078080227358</v>
       </c>
       <c r="E12">
-        <v>0.001666730462597544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.003491760810535955</v>
+      </c>
+      <c r="F12">
+        <v>0.006409146452067928</v>
+      </c>
+      <c r="G12">
+        <v>-0.02871232291511796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02117916377954745</v>
+        <v>0.0121666765848985</v>
       </c>
       <c r="C13">
-        <v>-0.01179413080792818</v>
+        <v>-0.03186378553681071</v>
       </c>
       <c r="D13">
-        <v>-0.01478894562703339</v>
+        <v>-0.02504955629949916</v>
       </c>
       <c r="E13">
-        <v>0.007216167398181057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02003811364186428</v>
+      </c>
+      <c r="F13">
+        <v>0.01723416623482585</v>
+      </c>
+      <c r="G13">
+        <v>-0.03928086934589708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006924233360738684</v>
+        <v>0.005749464542267997</v>
       </c>
       <c r="C14">
-        <v>-0.01060122565932805</v>
+        <v>-0.02663760179425355</v>
       </c>
       <c r="D14">
-        <v>-0.01635732239493178</v>
+        <v>-0.008944401911340256</v>
       </c>
       <c r="E14">
-        <v>-0.01101280976970827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.006739129506754071</v>
+      </c>
+      <c r="F14">
+        <v>-0.00125307868868134</v>
+      </c>
+      <c r="G14">
+        <v>-0.04481416905583088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0005905553639344937</v>
+        <v>0.03100620130422899</v>
       </c>
       <c r="C16">
-        <v>-0.0086280727029371</v>
+        <v>-0.04356800038381795</v>
       </c>
       <c r="D16">
-        <v>-0.04655095243102347</v>
+        <v>-0.001488433795466591</v>
       </c>
       <c r="E16">
-        <v>0.003327304697552008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.00432868402550044</v>
+      </c>
+      <c r="F16">
+        <v>0.009339220757852474</v>
+      </c>
+      <c r="G16">
+        <v>-0.02659668356844248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01301399409733412</v>
+        <v>0.02393726705190718</v>
       </c>
       <c r="C19">
-        <v>-0.02276193578198593</v>
+        <v>-0.04881494281183195</v>
       </c>
       <c r="D19">
-        <v>-0.02751788488379354</v>
+        <v>-0.0162675466107689</v>
       </c>
       <c r="E19">
-        <v>-0.006006998336461056</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05044487486359751</v>
+      </c>
+      <c r="F19">
+        <v>0.03312861518920766</v>
+      </c>
+      <c r="G19">
+        <v>-0.05273938416043197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01016101840704155</v>
+        <v>0.01115684872938413</v>
       </c>
       <c r="C20">
-        <v>-0.004854312793462775</v>
+        <v>-0.03424825957896584</v>
       </c>
       <c r="D20">
-        <v>-0.01210084648347663</v>
+        <v>-0.0131605459020787</v>
       </c>
       <c r="E20">
-        <v>-0.0002068504169184874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02109076081012006</v>
+      </c>
+      <c r="F20">
+        <v>0.00087653432730026</v>
+      </c>
+      <c r="G20">
+        <v>-0.0421610693380184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01399720271677315</v>
+        <v>0.01303331624876124</v>
       </c>
       <c r="C21">
-        <v>-0.03128208819565579</v>
+        <v>-0.03638471371093129</v>
       </c>
       <c r="D21">
-        <v>-0.02562034813966662</v>
+        <v>-0.0165405804310415</v>
       </c>
       <c r="E21">
-        <v>-0.01820498220288427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02908043672242461</v>
+      </c>
+      <c r="F21">
+        <v>0.01117131011430826</v>
+      </c>
+      <c r="G21">
+        <v>-0.06332601992686847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004611042499417429</v>
+        <v>0.02510494479314539</v>
       </c>
       <c r="C24">
-        <v>-0.0006120892606071076</v>
+        <v>-0.04647892723591114</v>
       </c>
       <c r="D24">
-        <v>-0.04323597802268963</v>
+        <v>-0.006947210359651472</v>
       </c>
       <c r="E24">
-        <v>0.004438141747361193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-8.75890849650808e-06</v>
+      </c>
+      <c r="F24">
+        <v>0.01816631397405316</v>
+      </c>
+      <c r="G24">
+        <v>-0.02863026591967796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01109591044080527</v>
+        <v>0.04193642351286502</v>
       </c>
       <c r="C25">
-        <v>-0.01772048057950562</v>
+        <v>-0.05349803835883318</v>
       </c>
       <c r="D25">
-        <v>-0.04490818810256132</v>
+        <v>-0.01095843646700753</v>
       </c>
       <c r="E25">
-        <v>0.003250111805094606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.006670860843487149</v>
+      </c>
+      <c r="F25">
+        <v>0.01172242155930392</v>
+      </c>
+      <c r="G25">
+        <v>-0.03506194467008586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02236476829561201</v>
+        <v>0.01031933403630594</v>
       </c>
       <c r="C26">
-        <v>-0.00844451829370288</v>
+        <v>-0.009227563928690357</v>
       </c>
       <c r="D26">
-        <v>0.005332228733302561</v>
+        <v>-0.02383277442461802</v>
       </c>
       <c r="E26">
-        <v>-0.01003884783822439</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.005627798274486595</v>
+      </c>
+      <c r="F26">
+        <v>0.002527682820617907</v>
+      </c>
+      <c r="G26">
+        <v>-0.03376033904299985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02967303060258034</v>
+        <v>0.1126902160951082</v>
       </c>
       <c r="C28">
-        <v>-0.2483364191249399</v>
+        <v>0.2272105930934837</v>
       </c>
       <c r="D28">
-        <v>0.1524543282564549</v>
+        <v>0.00870866283484666</v>
       </c>
       <c r="E28">
-        <v>-0.02757816195900172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.000399899839064009</v>
+      </c>
+      <c r="F28">
+        <v>-0.009838151124248847</v>
+      </c>
+      <c r="G28">
+        <v>-0.06408230394341066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007184718984177345</v>
+        <v>0.01059219809487159</v>
       </c>
       <c r="C29">
-        <v>-0.01593152604864833</v>
+        <v>-0.02045235810468259</v>
       </c>
       <c r="D29">
-        <v>-0.01446649945391341</v>
+        <v>-0.007639469178319684</v>
       </c>
       <c r="E29">
-        <v>-0.007126365047544278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.008466469749462937</v>
+      </c>
+      <c r="F29">
+        <v>-0.01115361932391887</v>
+      </c>
+      <c r="G29">
+        <v>-0.03609567217883942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02290681124187458</v>
+        <v>0.04285041502162003</v>
       </c>
       <c r="C30">
-        <v>0.005056870307031728</v>
+        <v>-0.06554569149331557</v>
       </c>
       <c r="D30">
-        <v>-0.06330529761842367</v>
+        <v>-0.02752639810151994</v>
       </c>
       <c r="E30">
-        <v>0.05887763592865302</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.0346779597583123</v>
+      </c>
+      <c r="F30">
+        <v>0.05223156158904665</v>
+      </c>
+      <c r="G30">
+        <v>-0.014462877614836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007240093348675593</v>
+        <v>0.04455904261505975</v>
       </c>
       <c r="C31">
-        <v>-0.04074527519945496</v>
+        <v>-0.03144842995991107</v>
       </c>
       <c r="D31">
-        <v>-0.04483923978578229</v>
+        <v>-0.003603477041809432</v>
       </c>
       <c r="E31">
-        <v>-0.005512040815728845</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.006296161017754633</v>
+      </c>
+      <c r="F31">
+        <v>-0.032215331432805</v>
+      </c>
+      <c r="G31">
+        <v>-0.03235093281541413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007404185960751191</v>
+        <v>-0.003616125321153454</v>
       </c>
       <c r="C32">
-        <v>-0.01588261507388529</v>
+        <v>-0.03212253256658232</v>
       </c>
       <c r="D32">
-        <v>-0.002414632475259315</v>
+        <v>0.004022290276259739</v>
       </c>
       <c r="E32">
-        <v>-0.03082005986956928</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.00745421901243919</v>
+      </c>
+      <c r="F32">
+        <v>0.05046719657748429</v>
+      </c>
+      <c r="G32">
+        <v>-0.06085557372517356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01204127544891941</v>
+        <v>0.02479121920578</v>
       </c>
       <c r="C33">
-        <v>-0.02093106880103325</v>
+        <v>-0.04772805709786222</v>
       </c>
       <c r="D33">
-        <v>-0.02499315252980474</v>
+        <v>-0.01454915342579103</v>
       </c>
       <c r="E33">
-        <v>0.02219317024862336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02063826264264526</v>
+      </c>
+      <c r="F33">
+        <v>0.02880696551588499</v>
+      </c>
+      <c r="G33">
+        <v>-0.04201122153150037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.00498173289979314</v>
+        <v>0.04376128283025337</v>
       </c>
       <c r="C34">
-        <v>-0.01543415450727441</v>
+        <v>-0.05404504347465244</v>
       </c>
       <c r="D34">
-        <v>-0.0494013508277072</v>
+        <v>0.005211650878833693</v>
       </c>
       <c r="E34">
-        <v>-0.004153174185386872</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.009421346706861825</v>
+      </c>
+      <c r="F34">
+        <v>0.01984043712524736</v>
+      </c>
+      <c r="G34">
+        <v>-0.04000923124620901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01174886618727399</v>
+        <v>0.009595664255944733</v>
       </c>
       <c r="C36">
-        <v>-0.01768702508301852</v>
+        <v>-0.007511044673392859</v>
       </c>
       <c r="D36">
-        <v>-0.003201214436186637</v>
+        <v>-0.01167180293687009</v>
       </c>
       <c r="E36">
-        <v>-0.003735856883785221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001399151161015596</v>
+      </c>
+      <c r="F36">
+        <v>-0.003629826353325117</v>
+      </c>
+      <c r="G36">
+        <v>-0.02898125091273942</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006011649964701604</v>
+        <v>0.0307102301457689</v>
       </c>
       <c r="C38">
-        <v>-0.02782813243132283</v>
+        <v>-0.02678769275180887</v>
       </c>
       <c r="D38">
-        <v>-0.0209513250935471</v>
+        <v>0.007460002876998757</v>
       </c>
       <c r="E38">
-        <v>-0.004221517746669465</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003478108122028286</v>
+      </c>
+      <c r="F38">
+        <v>-0.004638868118984579</v>
+      </c>
+      <c r="G38">
+        <v>-0.03769971391633806</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005619197962250647</v>
+        <v>0.03091543737880674</v>
       </c>
       <c r="C39">
-        <v>0.02711495468255364</v>
+        <v>-0.07990848319548044</v>
       </c>
       <c r="D39">
-        <v>-0.08798857605177374</v>
+        <v>-0.01216273446163373</v>
       </c>
       <c r="E39">
-        <v>0.01193706462642915</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02124332981009268</v>
+      </c>
+      <c r="F39">
+        <v>0.04008659407312082</v>
+      </c>
+      <c r="G39">
+        <v>-0.02973280850052884</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.010037338827475</v>
+        <v>0.0195188353584782</v>
       </c>
       <c r="C40">
-        <v>-0.009243085386118571</v>
+        <v>-0.0306944002854034</v>
       </c>
       <c r="D40">
-        <v>-0.03921230679997965</v>
+        <v>-0.01303565854246705</v>
       </c>
       <c r="E40">
-        <v>0.006444835090911149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01736675280613129</v>
+      </c>
+      <c r="F40">
+        <v>0.01991384164644195</v>
+      </c>
+      <c r="G40">
+        <v>-0.0294478376266371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004984804961093455</v>
+        <v>0.01082948831389884</v>
       </c>
       <c r="C41">
-        <v>-0.02119394002027146</v>
+        <v>0.0005334759948183112</v>
       </c>
       <c r="D41">
-        <v>0.008088561315660197</v>
+        <v>-0.003830607254165708</v>
       </c>
       <c r="E41">
-        <v>-0.004456829140473559</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002247123868793801</v>
+      </c>
+      <c r="F41">
+        <v>0.001036925380431642</v>
+      </c>
+      <c r="G41">
+        <v>-0.02024252147945027</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09412094214253236</v>
+        <v>0.01712026834337193</v>
       </c>
       <c r="C42">
-        <v>0.01537229099807066</v>
+        <v>-0.04362482392017235</v>
       </c>
       <c r="D42">
-        <v>-0.2603311251735663</v>
+        <v>-0.09527458016876592</v>
       </c>
       <c r="E42">
-        <v>0.299655719275876</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04089681373694952</v>
+      </c>
+      <c r="F42">
+        <v>-0.04635986075942472</v>
+      </c>
+      <c r="G42">
+        <v>0.1664397135917151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005955097168947741</v>
+        <v>0.02630011732134471</v>
       </c>
       <c r="C43">
-        <v>-0.02176008635772752</v>
+        <v>-0.01058644990199629</v>
       </c>
       <c r="D43">
-        <v>0.01198127371698041</v>
+        <v>-0.004459209394845947</v>
       </c>
       <c r="E43">
-        <v>-0.0003042295178803027</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.004270631741465662</v>
+      </c>
+      <c r="F43">
+        <v>-0.0002675250365580659</v>
+      </c>
+      <c r="G43">
+        <v>-0.02758046119806121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002791714843801646</v>
+        <v>0.01245318018747102</v>
       </c>
       <c r="C44">
-        <v>0.001308948775760684</v>
+        <v>-0.04954674809924409</v>
       </c>
       <c r="D44">
-        <v>-0.025537421646373</v>
+        <v>-0.006625656931981874</v>
       </c>
       <c r="E44">
-        <v>-0.002601703257466332</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01554553744301788</v>
+      </c>
+      <c r="F44">
+        <v>0.006859184623712164</v>
+      </c>
+      <c r="G44">
+        <v>-0.04527846081916361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01043863717823612</v>
+        <v>0.004300499775422307</v>
       </c>
       <c r="C46">
-        <v>-0.01818400358573147</v>
+        <v>-0.01682131307826838</v>
       </c>
       <c r="D46">
-        <v>-0.01338345375523554</v>
+        <v>-0.01168286828003115</v>
       </c>
       <c r="E46">
-        <v>-0.002405756359036266</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.003543056951059553</v>
+      </c>
+      <c r="F46">
+        <v>-0.01287186319297495</v>
+      </c>
+      <c r="G46">
+        <v>-0.03251912852159269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001050499744536801</v>
+        <v>0.07234606608713605</v>
       </c>
       <c r="C47">
-        <v>-0.04952867195948289</v>
+        <v>-0.06409869934173475</v>
       </c>
       <c r="D47">
-        <v>-0.05815472892027097</v>
+        <v>0.00469090233616144</v>
       </c>
       <c r="E47">
-        <v>0.004988013990651611</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.00672783134084382</v>
+      </c>
+      <c r="F47">
+        <v>-0.05156944090262932</v>
+      </c>
+      <c r="G47">
+        <v>-0.0305970240482412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002462976568450171</v>
+        <v>0.01956548312765757</v>
       </c>
       <c r="C48">
-        <v>-0.02499425972595566</v>
+        <v>-0.01023056909547064</v>
       </c>
       <c r="D48">
-        <v>-0.01361833518333986</v>
+        <v>-0.001117709853599686</v>
       </c>
       <c r="E48">
-        <v>-0.001945090457310556</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002500245778919099</v>
+      </c>
+      <c r="F48">
+        <v>-0.01192200859516649</v>
+      </c>
+      <c r="G48">
+        <v>-0.03528163548241332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.00226619701746088</v>
+        <v>0.07623993820891109</v>
       </c>
       <c r="C50">
-        <v>-0.04070400347899545</v>
+        <v>-0.06579067616825698</v>
       </c>
       <c r="D50">
-        <v>-0.06536757287502766</v>
+        <v>0.003044426082537952</v>
       </c>
       <c r="E50">
-        <v>-0.02244349810711909</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.009969833202127892</v>
+      </c>
+      <c r="F50">
+        <v>-0.04995388608248021</v>
+      </c>
+      <c r="G50">
+        <v>-0.05609011067253002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006920072179648754</v>
+        <v>0.008254367455052558</v>
       </c>
       <c r="C51">
-        <v>-0.02051050593976324</v>
+        <v>-0.02670036297292524</v>
       </c>
       <c r="D51">
-        <v>0.01054443996698755</v>
+        <v>-0.009298917009108964</v>
       </c>
       <c r="E51">
-        <v>-0.0108951501794466</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.007526604431828814</v>
+      </c>
+      <c r="F51">
+        <v>0.02337710200006675</v>
+      </c>
+      <c r="G51">
+        <v>-0.05881638859437159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003922296576307377</v>
+        <v>0.09021111887582535</v>
       </c>
       <c r="C53">
-        <v>-0.06060182644325968</v>
+        <v>-0.0812943244223291</v>
       </c>
       <c r="D53">
-        <v>-0.1160175329093201</v>
+        <v>0.004640154079523597</v>
       </c>
       <c r="E53">
-        <v>-0.001104070546567952</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03845078817331744</v>
+      </c>
+      <c r="F53">
+        <v>-0.06529136731211463</v>
+      </c>
+      <c r="G53">
+        <v>-0.03354121808410233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.00103761602780155</v>
+        <v>0.0272567424380856</v>
       </c>
       <c r="C54">
-        <v>-0.03439254973359031</v>
+        <v>-0.01013477443280773</v>
       </c>
       <c r="D54">
-        <v>0.005126670356099069</v>
+        <v>0.002737991329975121</v>
       </c>
       <c r="E54">
-        <v>-0.01150289322309205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.001464564037576566</v>
+      </c>
+      <c r="F54">
+        <v>-0.001974858905203442</v>
+      </c>
+      <c r="G54">
+        <v>-0.03759245665410141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001613519846023597</v>
+        <v>0.07284491738191531</v>
       </c>
       <c r="C55">
-        <v>-0.04383184194459718</v>
+        <v>-0.07255732137569301</v>
       </c>
       <c r="D55">
-        <v>-0.09915908525912018</v>
+        <v>0.004573322452169</v>
       </c>
       <c r="E55">
-        <v>0.01056889711027732</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02535590476465856</v>
+      </c>
+      <c r="F55">
+        <v>-0.05899320354436213</v>
+      </c>
+      <c r="G55">
+        <v>-0.01442207817252365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0008323753287122372</v>
+        <v>0.1439751475708333</v>
       </c>
       <c r="C56">
-        <v>-0.07892163276741176</v>
+        <v>-0.1038305000866686</v>
       </c>
       <c r="D56">
-        <v>-0.1481082918748118</v>
+        <v>0.01317578872524586</v>
       </c>
       <c r="E56">
-        <v>0.01026097547218996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03405688295218774</v>
+      </c>
+      <c r="F56">
+        <v>-0.09282088033707789</v>
+      </c>
+      <c r="G56">
+        <v>-0.005356859137153544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02321937295726394</v>
+        <v>0.01033607717600892</v>
       </c>
       <c r="C57">
-        <v>-0.02045268890939275</v>
+        <v>-0.00985571067546334</v>
       </c>
       <c r="D57">
-        <v>-0.03835212330219571</v>
+        <v>-0.02357052890374707</v>
       </c>
       <c r="E57">
-        <v>0.008095687624374372</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02679826628022365</v>
+      </c>
+      <c r="F57">
+        <v>0.01722834158701714</v>
+      </c>
+      <c r="G57">
+        <v>-0.02131277769631687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01004900880061898</v>
+        <v>0.0859541777765503</v>
       </c>
       <c r="C58">
-        <v>-0.09064273964767199</v>
+        <v>-0.04341586137096511</v>
       </c>
       <c r="D58">
-        <v>-0.101439492156333</v>
+        <v>-0.01275651282930073</v>
       </c>
       <c r="E58">
-        <v>0.2041672647728691</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9585863269716457</v>
+      </c>
+      <c r="F58">
+        <v>-0.1663623135622473</v>
+      </c>
+      <c r="G58">
+        <v>-0.001322977420235452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02568357784077065</v>
+        <v>0.1545165033424715</v>
       </c>
       <c r="C59">
-        <v>-0.2576561167456904</v>
+        <v>0.2120191949503848</v>
       </c>
       <c r="D59">
-        <v>0.1520800020947463</v>
+        <v>0.0159514481642169</v>
       </c>
       <c r="E59">
-        <v>-0.003918667683337541</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.008963655569898556</v>
+      </c>
+      <c r="F59">
+        <v>0.006027254819753534</v>
+      </c>
+      <c r="G59">
+        <v>-0.02279859630241596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03142942117059757</v>
+        <v>0.2895767979389241</v>
       </c>
       <c r="C60">
-        <v>-0.1583760954358653</v>
+        <v>-0.09675428262347829</v>
       </c>
       <c r="D60">
-        <v>-0.09786583706376807</v>
+        <v>-0.01083061256832861</v>
       </c>
       <c r="E60">
-        <v>0.04562508548171553</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02379507238968931</v>
+      </c>
+      <c r="F60">
+        <v>0.3646274576411564</v>
+      </c>
+      <c r="G60">
+        <v>0.08661114484060801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002815570590752288</v>
+        <v>0.03213698559505538</v>
       </c>
       <c r="C61">
-        <v>-0.00180308477444319</v>
+        <v>-0.06442893674002874</v>
       </c>
       <c r="D61">
-        <v>-0.06538870217210059</v>
+        <v>-0.005466023135736758</v>
       </c>
       <c r="E61">
-        <v>0.007025569474924344</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.009044266832476148</v>
+      </c>
+      <c r="F61">
+        <v>0.02272680281402265</v>
+      </c>
+      <c r="G61">
+        <v>-0.02794760271223364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007103650802628224</v>
+        <v>0.01099895788119716</v>
       </c>
       <c r="C63">
-        <v>-0.006128106052196589</v>
+        <v>-0.02871718258424153</v>
       </c>
       <c r="D63">
-        <v>-0.008427363702368715</v>
+        <v>-0.008278798658853425</v>
       </c>
       <c r="E63">
-        <v>-0.009781130387062097</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.006899053623687939</v>
+      </c>
+      <c r="F63">
+        <v>-0.0171080370429505</v>
+      </c>
+      <c r="G63">
+        <v>-0.04022010696570701</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006757258628891978</v>
+        <v>0.04993808975893075</v>
       </c>
       <c r="C64">
-        <v>-0.02397887418545175</v>
+        <v>-0.03999892332904016</v>
       </c>
       <c r="D64">
-        <v>-0.06651391829463865</v>
+        <v>-0.005417206267418847</v>
       </c>
       <c r="E64">
-        <v>0.01221620131613823</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.005998966262511355</v>
+      </c>
+      <c r="F64">
+        <v>0.006309591322521728</v>
+      </c>
+      <c r="G64">
+        <v>-0.02807820811074352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0175138666726507</v>
+        <v>0.08214229239194057</v>
       </c>
       <c r="C65">
-        <v>-0.01663085480047169</v>
+        <v>-0.06247797879083362</v>
       </c>
       <c r="D65">
-        <v>-0.09429627261147308</v>
+        <v>-0.01550680669713779</v>
       </c>
       <c r="E65">
-        <v>0.0001596912067329738</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01295853011428245</v>
+      </c>
+      <c r="F65">
+        <v>0.03270902671943082</v>
+      </c>
+      <c r="G65">
+        <v>-0.01667988568027816</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005210318961450996</v>
+        <v>0.05172101925730965</v>
       </c>
       <c r="C66">
-        <v>0.01956184044374023</v>
+        <v>-0.1125987688589857</v>
       </c>
       <c r="D66">
-        <v>-0.1133260760278073</v>
+        <v>-0.01176082482751324</v>
       </c>
       <c r="E66">
-        <v>0.02757937532301822</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02341029607473812</v>
+      </c>
+      <c r="F66">
+        <v>0.04901141200470496</v>
+      </c>
+      <c r="G66">
+        <v>-0.02357278326003258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.00082670501197161</v>
+        <v>0.05376861619528116</v>
       </c>
       <c r="C67">
-        <v>-0.04511286521506645</v>
+        <v>-0.03115521185482129</v>
       </c>
       <c r="D67">
-        <v>-0.02853558080213987</v>
+        <v>0.005623012798693447</v>
       </c>
       <c r="E67">
-        <v>-0.001909049536779714</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003165214559068084</v>
+      </c>
+      <c r="F67">
+        <v>-0.005913753886340492</v>
+      </c>
+      <c r="G67">
+        <v>-0.036183805052995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.0440138346273161</v>
+        <v>0.1374416287365886</v>
       </c>
       <c r="C68">
-        <v>-0.2323699103310821</v>
+        <v>0.2707244953254955</v>
       </c>
       <c r="D68">
-        <v>0.1447387350374036</v>
+        <v>-0.002013724758618771</v>
       </c>
       <c r="E68">
-        <v>0.003733800572954455</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.009071949493616605</v>
+      </c>
+      <c r="F68">
+        <v>-0.03951825931142335</v>
+      </c>
+      <c r="G68">
+        <v>-0.02374107216589481</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003504202853962195</v>
+        <v>0.07638900625322775</v>
       </c>
       <c r="C69">
-        <v>-0.03473512928681466</v>
+        <v>-0.06504340062036129</v>
       </c>
       <c r="D69">
-        <v>-0.06250907398799638</v>
+        <v>0.008651374795268684</v>
       </c>
       <c r="E69">
-        <v>-0.0002725541050976746</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02635510569239063</v>
+      </c>
+      <c r="F69">
+        <v>-0.0390734175083067</v>
+      </c>
+      <c r="G69">
+        <v>-0.03138745222772858</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.0307929447984078</v>
+        <v>0.1338689272932544</v>
       </c>
       <c r="C71">
-        <v>-0.2048717124188001</v>
+        <v>0.2343516342223869</v>
       </c>
       <c r="D71">
-        <v>0.1343400745607709</v>
+        <v>0.007054560404173572</v>
       </c>
       <c r="E71">
-        <v>-0.01173810296341748</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02132345700437906</v>
+      </c>
+      <c r="F71">
+        <v>-0.009903291129563938</v>
+      </c>
+      <c r="G71">
+        <v>-0.03764102788079084</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002449185945977775</v>
+        <v>0.08192098568749029</v>
       </c>
       <c r="C72">
-        <v>-0.03756623676157322</v>
+        <v>-0.07329273518844462</v>
       </c>
       <c r="D72">
-        <v>-0.1332840962755797</v>
+        <v>0.008147227354691674</v>
       </c>
       <c r="E72">
-        <v>0.02866226165717791</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01284153771540024</v>
+      </c>
+      <c r="F72">
+        <v>0.03649759767710899</v>
+      </c>
+      <c r="G72">
+        <v>-0.007373040628487863</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04520519979212207</v>
+        <v>0.4021614457567225</v>
       </c>
       <c r="C73">
-        <v>-0.1851444012652093</v>
+        <v>-0.1034015156627478</v>
       </c>
       <c r="D73">
-        <v>-0.1658027218276704</v>
+        <v>-0.01535356815346763</v>
       </c>
       <c r="E73">
-        <v>0.1064441800597618</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.02351847200529401</v>
+      </c>
+      <c r="F73">
+        <v>0.5560488169574171</v>
+      </c>
+      <c r="G73">
+        <v>0.1544348369126448</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0009065395765190998</v>
+        <v>0.1160582757738978</v>
       </c>
       <c r="C74">
-        <v>-0.0711186626094196</v>
+        <v>-0.1179285387505688</v>
       </c>
       <c r="D74">
-        <v>-0.1507811309236544</v>
+        <v>0.009920713941875771</v>
       </c>
       <c r="E74">
-        <v>0.01927914301168783</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0189526267606946</v>
+      </c>
+      <c r="F74">
+        <v>-0.08063196882561974</v>
+      </c>
+      <c r="G74">
+        <v>-0.03859640010044352</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.002485223136842874</v>
+        <v>0.2595363352405238</v>
       </c>
       <c r="C75">
-        <v>-0.1758857863066037</v>
+        <v>-0.15145086292817</v>
       </c>
       <c r="D75">
-        <v>-0.2795056941999122</v>
+        <v>0.03080515535469245</v>
       </c>
       <c r="E75">
-        <v>0.04488436836334989</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05527365874636636</v>
+      </c>
+      <c r="F75">
+        <v>-0.2052929076482009</v>
+      </c>
+      <c r="G75">
+        <v>0.0354769279991681</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004608582577911364</v>
+        <v>0.1324047212751317</v>
       </c>
       <c r="C76">
-        <v>-0.1212177908182649</v>
+        <v>-0.1243781786431014</v>
       </c>
       <c r="D76">
-        <v>-0.2394560904156873</v>
+        <v>0.02059835726793357</v>
       </c>
       <c r="E76">
-        <v>0.004487079444706095</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.05002023464249305</v>
+      </c>
+      <c r="F76">
+        <v>-0.1339879230641953</v>
+      </c>
+      <c r="G76">
+        <v>-0.02215376900005187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01074350072612744</v>
+        <v>0.06528186164621955</v>
       </c>
       <c r="C77">
-        <v>-0.007955570100953782</v>
+        <v>-0.06385079576058761</v>
       </c>
       <c r="D77">
-        <v>-0.06044650757634114</v>
+        <v>-0.01242212964715825</v>
       </c>
       <c r="E77">
-        <v>0.003809232401419651</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04711337347217595</v>
+      </c>
+      <c r="F77">
+        <v>0.01865049171451546</v>
+      </c>
+      <c r="G77">
+        <v>-0.05529066814028206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003640198101811788</v>
+        <v>0.03886743663307215</v>
       </c>
       <c r="C78">
-        <v>-0.003256326065470412</v>
+        <v>-0.05043954630459704</v>
       </c>
       <c r="D78">
-        <v>-0.06580377967280386</v>
+        <v>-0.005932373312699867</v>
       </c>
       <c r="E78">
-        <v>0.003688240170494481</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02041367118131431</v>
+      </c>
+      <c r="F78">
+        <v>0.04216286679736835</v>
+      </c>
+      <c r="G78">
+        <v>-0.03912174697115093</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01487438668004276</v>
+        <v>0.0563395589415014</v>
       </c>
       <c r="C80">
-        <v>-0.1148383549106593</v>
+        <v>-0.0665705008690165</v>
       </c>
       <c r="D80">
-        <v>-0.2313120525486763</v>
+        <v>-0.01355349499735656</v>
       </c>
       <c r="E80">
-        <v>-0.8983304830155329</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03562705265971171</v>
+      </c>
+      <c r="F80">
+        <v>0.04931170842085591</v>
+      </c>
+      <c r="G80">
+        <v>-0.8948753112792306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.002468295914278247</v>
+        <v>0.147483224323485</v>
       </c>
       <c r="C81">
-        <v>-0.1138595594399756</v>
+        <v>-0.09443000270161223</v>
       </c>
       <c r="D81">
-        <v>-0.1742361326329139</v>
+        <v>0.01548841472618148</v>
       </c>
       <c r="E81">
-        <v>0.01943029817712697</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.02949106948542481</v>
+      </c>
+      <c r="F81">
+        <v>-0.1308088859087493</v>
+      </c>
+      <c r="G81">
+        <v>-0.0156656783362979</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05067916787888188</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.04111236429969778</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002038085100363385</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0214027505747699</v>
+      </c>
+      <c r="F82">
+        <v>-0.01136816793025343</v>
+      </c>
+      <c r="G82">
+        <v>0.0002124597609027767</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006572393920568815</v>
+        <v>0.02729314720039144</v>
       </c>
       <c r="C83">
-        <v>-0.02703932708006446</v>
+        <v>-0.0188704887115999</v>
       </c>
       <c r="D83">
-        <v>-0.02518047149024044</v>
+        <v>-0.005068917589356235</v>
       </c>
       <c r="E83">
-        <v>0.005133973170980601</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02536432086074684</v>
+      </c>
+      <c r="F83">
+        <v>0.02160614100310785</v>
+      </c>
+      <c r="G83">
+        <v>-0.02603657153818833</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01029616110866596</v>
+        <v>0.2319104616304252</v>
       </c>
       <c r="C85">
-        <v>-0.1355705400631215</v>
+        <v>-0.1509070125827705</v>
       </c>
       <c r="D85">
-        <v>-0.2714943221626615</v>
+        <v>0.01884248273020745</v>
       </c>
       <c r="E85">
-        <v>0.04385839015719507</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1041064445157277</v>
+      </c>
+      <c r="F85">
+        <v>-0.1844380987251411</v>
+      </c>
+      <c r="G85">
+        <v>0.05209092658900143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006587838127261312</v>
+        <v>0.007281201542918439</v>
       </c>
       <c r="C86">
-        <v>-0.02659783431995799</v>
+        <v>-0.01392291771814607</v>
       </c>
       <c r="D86">
-        <v>-0.008726792827931835</v>
+        <v>-0.009790253109906586</v>
       </c>
       <c r="E86">
-        <v>0.0213630936803185</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02806798390073637</v>
+      </c>
+      <c r="F86">
+        <v>0.03415229943405382</v>
+      </c>
+      <c r="G86">
+        <v>-0.06013065388052768</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007220180051896639</v>
+        <v>0.01806181047128775</v>
       </c>
       <c r="C87">
-        <v>-0.00896786043937777</v>
+        <v>-0.02478449054657965</v>
       </c>
       <c r="D87">
-        <v>-0.03910552157043423</v>
+        <v>-0.01064763250007052</v>
       </c>
       <c r="E87">
-        <v>0.0052216999290979</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08373523221723908</v>
+      </c>
+      <c r="F87">
+        <v>0.03193643784371979</v>
+      </c>
+      <c r="G87">
+        <v>-0.05043321770507923</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02609499517128225</v>
+        <v>0.08942042628402755</v>
       </c>
       <c r="C88">
-        <v>-0.03720793240132798</v>
+        <v>-0.05996900224887376</v>
       </c>
       <c r="D88">
-        <v>-0.03265897849482161</v>
+        <v>-0.02239097749586551</v>
       </c>
       <c r="E88">
-        <v>0.005350033036980732</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01148603363248756</v>
+      </c>
+      <c r="F88">
+        <v>-0.005711004429737947</v>
+      </c>
+      <c r="G88">
+        <v>-0.02770077626331258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05912486142846568</v>
+        <v>0.2230718168508722</v>
       </c>
       <c r="C89">
-        <v>-0.3777013521891834</v>
+        <v>0.3681066311129524</v>
       </c>
       <c r="D89">
-        <v>0.2179058433513335</v>
+        <v>0.006619849765460793</v>
       </c>
       <c r="E89">
-        <v>0.006909576387059703</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02133695660921054</v>
+      </c>
+      <c r="F89">
+        <v>-0.03479342831237386</v>
+      </c>
+      <c r="G89">
+        <v>-0.03465549783162549</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04494249800208328</v>
+        <v>0.1937305494171363</v>
       </c>
       <c r="C90">
-        <v>-0.2940728965409804</v>
+        <v>0.3328226003340407</v>
       </c>
       <c r="D90">
-        <v>0.2107025280315446</v>
+        <v>0.0102520393539256</v>
       </c>
       <c r="E90">
-        <v>0.009510720314508314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01252970780463845</v>
+      </c>
+      <c r="F90">
+        <v>-0.05164981950078607</v>
+      </c>
+      <c r="G90">
+        <v>-0.004087141956468392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001447360833640091</v>
+        <v>0.2048070138122679</v>
       </c>
       <c r="C91">
-        <v>-0.1385555742019765</v>
+        <v>-0.1386428771975796</v>
       </c>
       <c r="D91">
-        <v>-0.2497538117966926</v>
+        <v>0.02425481985319316</v>
       </c>
       <c r="E91">
-        <v>0.02562917179182862</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07131643401405892</v>
+      </c>
+      <c r="F91">
+        <v>-0.1735936324542028</v>
+      </c>
+      <c r="G91">
+        <v>-0.006751058672460588</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.01060211873724677</v>
+        <v>0.2005532868211228</v>
       </c>
       <c r="C92">
-        <v>-0.3302032090620428</v>
+        <v>0.2594277216558197</v>
       </c>
       <c r="D92">
-        <v>0.07027045633008404</v>
+        <v>0.0479951999313645</v>
       </c>
       <c r="E92">
-        <v>0.009148430491657629</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.0004609321512933038</v>
+      </c>
+      <c r="F92">
+        <v>-0.103808770781299</v>
+      </c>
+      <c r="G92">
+        <v>-0.06955807816153943</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04242410870714898</v>
+        <v>0.2246270788733751</v>
       </c>
       <c r="C93">
-        <v>-0.329125557573749</v>
+        <v>0.3324791039961363</v>
       </c>
       <c r="D93">
-        <v>0.2029087739944782</v>
+        <v>0.01779806076064723</v>
       </c>
       <c r="E93">
-        <v>0.03368489426472398</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-1.806467251030821e-05</v>
+      </c>
+      <c r="F93">
+        <v>-0.03622116074942121</v>
+      </c>
+      <c r="G93">
+        <v>0.001254285936312312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02020336358827072</v>
+        <v>0.2950505713256617</v>
       </c>
       <c r="C94">
-        <v>-0.1825167260588074</v>
+        <v>-0.1811255359789978</v>
       </c>
       <c r="D94">
-        <v>-0.2521685281423013</v>
+        <v>0.0137889216739559</v>
       </c>
       <c r="E94">
-        <v>0.07306272555285101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.09933571257343107</v>
+      </c>
+      <c r="F94">
+        <v>-0.4547939034004075</v>
+      </c>
+      <c r="G94">
+        <v>0.1519913250243383</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.005414034826807142</v>
+        <v>0.08940110387884803</v>
       </c>
       <c r="C95">
-        <v>-0.04365869713114962</v>
+        <v>-0.06849260214814215</v>
       </c>
       <c r="D95">
-        <v>-0.08493269136097516</v>
+        <v>0.008701025999149349</v>
       </c>
       <c r="E95">
-        <v>0.1180972118146297</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06604977865378196</v>
+      </c>
+      <c r="F95">
+        <v>0.161398878482984</v>
+      </c>
+      <c r="G95">
+        <v>0.08306108274609666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.00581425089553448</v>
+        <v>0.2023654431368592</v>
       </c>
       <c r="C98">
-        <v>-0.1554912234685855</v>
+        <v>-0.04122227010379947</v>
       </c>
       <c r="D98">
-        <v>-0.1230482562235938</v>
+        <v>0.01525278244076075</v>
       </c>
       <c r="E98">
-        <v>0.06623828311356024</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.04789018853429292</v>
+      </c>
+      <c r="F98">
+        <v>0.2623715920420072</v>
+      </c>
+      <c r="G98">
+        <v>0.02578311324449999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007029133243154555</v>
+        <v>0.01044939207385989</v>
       </c>
       <c r="C101">
-        <v>-0.01641818877076622</v>
+        <v>-0.02056735532519326</v>
       </c>
       <c r="D101">
-        <v>-0.01511560717169428</v>
+        <v>-0.007429147020593308</v>
       </c>
       <c r="E101">
-        <v>-0.007265231020782858</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008845596614122476</v>
+      </c>
+      <c r="F101">
+        <v>-0.01297550152257725</v>
+      </c>
+      <c r="G101">
+        <v>-0.03608276752757267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01434176066051988</v>
+        <v>0.120186941632192</v>
       </c>
       <c r="C102">
-        <v>-0.08533127842919846</v>
+        <v>-0.08302021398019034</v>
       </c>
       <c r="D102">
-        <v>-0.1350435590377965</v>
+        <v>-0.001081435832584771</v>
       </c>
       <c r="E102">
-        <v>0.02316384380519427</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03436912086595973</v>
+      </c>
+      <c r="F102">
+        <v>-0.04749112871678541</v>
+      </c>
+      <c r="G102">
+        <v>0.004104567811705791</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001710516174040383</v>
+        <v>0.004140609550740113</v>
       </c>
       <c r="C103">
-        <v>-0.0122601507610341</v>
+        <v>-0.005395617739311911</v>
       </c>
       <c r="D103">
-        <v>-0.02968363355994261</v>
+        <v>-0.0004496438308080443</v>
       </c>
       <c r="E103">
-        <v>-0.01218875756047209</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002475962767614034</v>
+      </c>
+      <c r="F103">
+        <v>-0.008769201985180192</v>
+      </c>
+      <c r="G103">
+        <v>-0.01752493248545522</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9839630131205747</v>
+        <v>0.0323248195506954</v>
       </c>
       <c r="C104">
-        <v>0.1150838990274886</v>
+        <v>0.04006817426155319</v>
       </c>
       <c r="D104">
-        <v>0.01328988084493085</v>
+        <v>-0.9872721600875827</v>
       </c>
       <c r="E104">
-        <v>-0.02788445086180793</v>
+        <v>0.03345464869220235</v>
+      </c>
+      <c r="F104">
+        <v>-0.04544075968731685</v>
+      </c>
+      <c r="G104">
+        <v>0.009599543684586808</v>
       </c>
     </row>
   </sheetData>
